--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Sema6a-Plxna2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Sema6a-Plxna2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Sema6a</t>
+  </si>
+  <si>
+    <t>Plxna2</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Sema6a</t>
-  </si>
-  <si>
-    <t>Plxna2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>53.89540466666667</v>
+        <v>34.94542999999999</v>
       </c>
       <c r="H2">
-        <v>161.686214</v>
+        <v>104.83629</v>
       </c>
       <c r="I2">
-        <v>0.7589755709737953</v>
+        <v>0.633548351968144</v>
       </c>
       <c r="J2">
-        <v>0.8167971433284414</v>
+        <v>0.7123011194441952</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>39.92976633333333</v>
+        <v>23.31637266666667</v>
       </c>
       <c r="N2">
-        <v>119.789299</v>
+        <v>69.949118</v>
       </c>
       <c r="O2">
-        <v>0.7836943683202754</v>
+        <v>0.5832682088864471</v>
       </c>
       <c r="P2">
-        <v>0.8192290241759873</v>
+        <v>0.650052653999578</v>
       </c>
       <c r="Q2">
-        <v>2152.030914780443</v>
+        <v>814.8006688769132</v>
       </c>
       <c r="R2">
-        <v>19368.27823302399</v>
+        <v>7333.206019892219</v>
       </c>
       <c r="S2">
-        <v>0.5948048806648288</v>
+        <v>0.3695286124954197</v>
       </c>
       <c r="T2">
-        <v>0.6691439266786932</v>
+        <v>0.4630332331415695</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>53.89540466666667</v>
+        <v>34.94542999999999</v>
       </c>
       <c r="H3">
-        <v>161.686214</v>
+        <v>104.83629</v>
       </c>
       <c r="I3">
-        <v>0.7589755709737953</v>
+        <v>0.633548351968144</v>
       </c>
       <c r="J3">
-        <v>0.8167971433284414</v>
+        <v>0.7123011194441952</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>9.341823999999999</v>
       </c>
       <c r="O3">
-        <v>0.06111676852403308</v>
+        <v>0.07789646400133915</v>
       </c>
       <c r="P3">
-        <v>0.06388795512981353</v>
+        <v>0.08681564054027034</v>
       </c>
       <c r="Q3">
-        <v>167.8271282682595</v>
+        <v>108.8180188881066</v>
       </c>
       <c r="R3">
-        <v>1510.444154414336</v>
+        <v>979.3621699929598</v>
       </c>
       <c r="S3">
-        <v>0.04638613428660129</v>
+        <v>0.04935117639219427</v>
       </c>
       <c r="T3">
-        <v>0.05218349924312734</v>
+        <v>0.06183887794209942</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,14 +649,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
         <v>3</v>
       </c>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>53.89540466666667</v>
+        <v>34.94542999999999</v>
       </c>
       <c r="H4">
-        <v>161.686214</v>
+        <v>104.83629</v>
       </c>
       <c r="I4">
-        <v>0.7589755709737953</v>
+        <v>0.633548351968144</v>
       </c>
       <c r="J4">
-        <v>0.8167971433284414</v>
+        <v>0.7123011194441952</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3581776666666667</v>
+        <v>0.2259803333333333</v>
       </c>
       <c r="N4">
-        <v>1.074533</v>
+        <v>0.677941</v>
       </c>
       <c r="O4">
-        <v>0.007029888877422101</v>
+        <v>0.005652986686703996</v>
       </c>
       <c r="P4">
-        <v>0.007348641559667998</v>
+        <v>0.006300255941828</v>
       </c>
       <c r="Q4">
-        <v>19.30413028756245</v>
+        <v>7.896979919876665</v>
       </c>
       <c r="R4">
-        <v>173.737172588062</v>
+        <v>71.07281927888999</v>
       </c>
       <c r="S4">
-        <v>0.005335513924623772</v>
+        <v>0.003581440399059175</v>
       </c>
       <c r="T4">
-        <v>0.006002349433281483</v>
+        <v>0.004487679360149027</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>53.89540466666667</v>
+        <v>34.94542999999999</v>
       </c>
       <c r="H5">
-        <v>161.686214</v>
+        <v>104.83629</v>
       </c>
       <c r="I5">
-        <v>0.7589755709737953</v>
+        <v>0.633548351968144</v>
       </c>
       <c r="J5">
-        <v>0.8167971433284414</v>
+        <v>0.7123011194441952</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.630069499999999</v>
+        <v>12.3208515</v>
       </c>
       <c r="N5">
-        <v>13.260139</v>
+        <v>24.641703</v>
       </c>
       <c r="O5">
-        <v>0.1301271859531132</v>
+        <v>0.3082109335400439</v>
       </c>
       <c r="P5">
-        <v>0.09068498458621042</v>
+        <v>0.2290008064750633</v>
       </c>
       <c r="Q5">
-        <v>357.3302786706244</v>
+        <v>430.5574536336449</v>
       </c>
       <c r="R5">
-        <v>2143.981672023746</v>
+        <v>2583.34472180187</v>
       </c>
       <c r="S5">
-        <v>0.09876335525797729</v>
+        <v>0.1952665290028579</v>
       </c>
       <c r="T5">
-        <v>0.07407123635280041</v>
+        <v>0.1631175308058111</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,14 +773,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>53.89540466666667</v>
+        <v>34.94542999999999</v>
       </c>
       <c r="H6">
-        <v>161.686214</v>
+        <v>104.83629</v>
       </c>
       <c r="I6">
-        <v>0.7589755709737953</v>
+        <v>0.633548351968144</v>
       </c>
       <c r="J6">
-        <v>0.8167971433284414</v>
+        <v>0.7123011194441952</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.9187319999999999</v>
+        <v>0.9982416666666666</v>
       </c>
       <c r="N6">
-        <v>2.756196</v>
+        <v>2.994725</v>
       </c>
       <c r="O6">
-        <v>0.0180317883251564</v>
+        <v>0.02497140688546588</v>
       </c>
       <c r="P6">
-        <v>0.01884939454832071</v>
+        <v>0.02783064304326019</v>
       </c>
       <c r="Q6">
-        <v>49.515432920216</v>
+        <v>34.88398428558332</v>
       </c>
       <c r="R6">
-        <v>445.638896281944</v>
+        <v>313.95585857025</v>
       </c>
       <c r="S6">
-        <v>0.0136856868397642</v>
+        <v>0.01582059367861287</v>
       </c>
       <c r="T6">
-        <v>0.01539613162053905</v>
+        <v>0.01982379819456604</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -853,13 +853,13 @@
         <v>1.917768333333333</v>
       </c>
       <c r="H7">
-        <v>5.753304999999999</v>
+        <v>5.753305</v>
       </c>
       <c r="I7">
-        <v>0.02700674250039271</v>
+        <v>0.03476846520532235</v>
       </c>
       <c r="J7">
-        <v>0.02906421625221083</v>
+        <v>0.0390903340055613</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>39.92976633333333</v>
+        <v>23.31637266666667</v>
       </c>
       <c r="N7">
-        <v>119.789299</v>
+        <v>69.949118</v>
       </c>
       <c r="O7">
-        <v>0.7836943683202754</v>
+        <v>0.5832682088864471</v>
       </c>
       <c r="P7">
-        <v>0.8192290241759873</v>
+        <v>0.650052653999578</v>
       </c>
       <c r="Q7">
-        <v>76.57604143146609</v>
+        <v>44.71540114833222</v>
       </c>
       <c r="R7">
-        <v>689.1843728831949</v>
+        <v>402.43861033499</v>
       </c>
       <c r="S7">
-        <v>0.0211650320042336</v>
+        <v>0.02027934042603912</v>
       </c>
       <c r="T7">
-        <v>0.02381024951873855</v>
+        <v>0.02541077536604508</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -915,13 +915,13 @@
         <v>1.917768333333333</v>
       </c>
       <c r="H8">
-        <v>5.753304999999999</v>
+        <v>5.753305</v>
       </c>
       <c r="I8">
-        <v>0.02700674250039271</v>
+        <v>0.03476846520532235</v>
       </c>
       <c r="J8">
-        <v>0.02906421625221083</v>
+        <v>0.0390903340055613</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>9.341823999999999</v>
       </c>
       <c r="O8">
-        <v>0.06111676852403308</v>
+        <v>0.07789646400133915</v>
       </c>
       <c r="P8">
-        <v>0.06388795512981353</v>
+        <v>0.08681564054027034</v>
       </c>
       <c r="Q8">
-        <v>5.971818080924443</v>
+        <v>5.971818080924444</v>
       </c>
       <c r="R8">
         <v>53.74636272831999</v>
       </c>
       <c r="S8">
-        <v>0.001650564829984668</v>
+        <v>0.002708340498248205</v>
       </c>
       <c r="T8">
-        <v>0.001856853343804443</v>
+        <v>0.003393652385625916</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,13 +977,13 @@
         <v>1.917768333333333</v>
       </c>
       <c r="H9">
-        <v>5.753304999999999</v>
+        <v>5.753305</v>
       </c>
       <c r="I9">
-        <v>0.02700674250039271</v>
+        <v>0.03476846520532235</v>
       </c>
       <c r="J9">
-        <v>0.02906421625221083</v>
+        <v>0.0390903340055613</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.3581776666666667</v>
+        <v>0.2259803333333333</v>
       </c>
       <c r="N9">
-        <v>1.074533</v>
+        <v>0.677941</v>
       </c>
       <c r="O9">
-        <v>0.007029888877422101</v>
+        <v>0.005652986686703996</v>
       </c>
       <c r="P9">
-        <v>0.007348641559667998</v>
+        <v>0.006300255941828</v>
       </c>
       <c r="Q9">
-        <v>0.6869017868405555</v>
+        <v>0.4333779272227778</v>
       </c>
       <c r="R9">
-        <v>6.182116081564999</v>
+        <v>3.900401345005</v>
       </c>
       <c r="S9">
-        <v>0.0001898543987189135</v>
+        <v>0.0001965456709228184</v>
       </c>
       <c r="T9">
-        <v>0.0002135825074501746</v>
+        <v>0.0002462791090865787</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,13 +1039,13 @@
         <v>1.917768333333333</v>
       </c>
       <c r="H10">
-        <v>5.753304999999999</v>
+        <v>5.753305</v>
       </c>
       <c r="I10">
-        <v>0.02700674250039271</v>
+        <v>0.03476846520532235</v>
       </c>
       <c r="J10">
-        <v>0.02906421625221083</v>
+        <v>0.0390903340055613</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.630069499999999</v>
+        <v>12.3208515</v>
       </c>
       <c r="N10">
-        <v>13.260139</v>
+        <v>24.641703</v>
       </c>
       <c r="O10">
-        <v>0.1301271859531132</v>
+        <v>0.3082109335400439</v>
       </c>
       <c r="P10">
-        <v>0.09068498458621042</v>
+        <v>0.2290008064750633</v>
       </c>
       <c r="Q10">
-        <v>12.71493733489916</v>
+        <v>23.6285388464025</v>
       </c>
       <c r="R10">
-        <v>76.28962400939498</v>
+        <v>141.771233078415</v>
       </c>
       <c r="S10">
-        <v>0.003514311403336446</v>
+        <v>0.01071602111868693</v>
       </c>
       <c r="T10">
-        <v>0.002635688002842025</v>
+        <v>0.008951718012653128</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,43 +1101,43 @@
         <v>1.917768333333333</v>
       </c>
       <c r="H11">
-        <v>5.753304999999999</v>
+        <v>5.753305</v>
       </c>
       <c r="I11">
-        <v>0.02700674250039271</v>
+        <v>0.03476846520532235</v>
       </c>
       <c r="J11">
-        <v>0.02906421625221083</v>
+        <v>0.0390903340055613</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.9187319999999999</v>
+        <v>0.9982416666666666</v>
       </c>
       <c r="N11">
-        <v>2.756196</v>
+        <v>2.994725</v>
       </c>
       <c r="O11">
-        <v>0.0180317883251564</v>
+        <v>0.02497140688546588</v>
       </c>
       <c r="P11">
-        <v>0.01884939454832071</v>
+        <v>0.02783064304326019</v>
       </c>
       <c r="Q11">
-        <v>1.76191513642</v>
+        <v>1.914396257347222</v>
       </c>
       <c r="R11">
-        <v>15.85723622778</v>
+        <v>17.229566316125</v>
       </c>
       <c r="S11">
-        <v>0.0004869798641190865</v>
+        <v>0.0008682174914252674</v>
       </c>
       <c r="T11">
-        <v>0.0005478428793756369</v>
+        <v>0.001087909132150592</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.03280966666666667</v>
+        <v>18.29507</v>
       </c>
       <c r="H12">
-        <v>0.098429</v>
+        <v>36.59014000000001</v>
       </c>
       <c r="I12">
-        <v>0.000462038195015066</v>
+        <v>0.3316831828265337</v>
       </c>
       <c r="J12">
-        <v>0.0004972379773867126</v>
+        <v>0.2486085465502435</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>39.92976633333333</v>
+        <v>23.31637266666667</v>
       </c>
       <c r="N12">
-        <v>119.789299</v>
+        <v>69.949118</v>
       </c>
       <c r="O12">
-        <v>0.7836943683202754</v>
+        <v>0.5832682088864471</v>
       </c>
       <c r="P12">
-        <v>0.8192290241759873</v>
+        <v>0.650052653999578</v>
       </c>
       <c r="Q12">
-        <v>1.310082323474556</v>
+        <v>426.5746700827534</v>
       </c>
       <c r="R12">
-        <v>11.790740911271</v>
+        <v>2559.44802049652</v>
       </c>
       <c r="S12">
-        <v>0.0003620967313821724</v>
+        <v>0.1934602559649883</v>
       </c>
       <c r="T12">
-        <v>0.0004073517829977582</v>
+        <v>0.1616086454919634</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.03280966666666667</v>
+        <v>18.29507</v>
       </c>
       <c r="H13">
-        <v>0.098429</v>
+        <v>36.59014000000001</v>
       </c>
       <c r="I13">
-        <v>0.000462038195015066</v>
+        <v>0.3316831828265337</v>
       </c>
       <c r="J13">
-        <v>0.0004972379773867126</v>
+        <v>0.2486085465502435</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>9.341823999999999</v>
       </c>
       <c r="O13">
-        <v>0.06111676852403308</v>
+        <v>0.07789646400133915</v>
       </c>
       <c r="P13">
-        <v>0.06388795512981353</v>
+        <v>0.08681564054027034</v>
       </c>
       <c r="Q13">
-        <v>0.1021673771662222</v>
+        <v>56.96977466922667</v>
       </c>
       <c r="R13">
-        <v>0.9195063944959999</v>
+        <v>341.81864801536</v>
       </c>
       <c r="S13">
-        <v>2.823828141399784E-05</v>
+        <v>0.02583694711089667</v>
       </c>
       <c r="T13">
-        <v>3.176751758812153E-05</v>
+        <v>0.02158311021254501</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
         <v>25</v>
       </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>22</v>
-      </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.03280966666666667</v>
+        <v>18.29507</v>
       </c>
       <c r="H14">
-        <v>0.098429</v>
+        <v>36.59014000000001</v>
       </c>
       <c r="I14">
-        <v>0.000462038195015066</v>
+        <v>0.3316831828265337</v>
       </c>
       <c r="J14">
-        <v>0.0004972379773867126</v>
+        <v>0.2486085465502435</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.3581776666666667</v>
+        <v>0.2259803333333333</v>
       </c>
       <c r="N14">
-        <v>1.074533</v>
+        <v>0.677941</v>
       </c>
       <c r="O14">
-        <v>0.007029888877422101</v>
+        <v>0.005652986686703996</v>
       </c>
       <c r="P14">
-        <v>0.007348641559667998</v>
+        <v>0.006300255941828</v>
       </c>
       <c r="Q14">
-        <v>0.01175168985077778</v>
+        <v>4.134326016956668</v>
       </c>
       <c r="R14">
-        <v>0.105765208657</v>
+        <v>24.80595610174</v>
       </c>
       <c r="S14">
-        <v>3.248077168080596E-06</v>
+        <v>0.001875000616722003</v>
       </c>
       <c r="T14">
-        <v>3.654023665669252E-06</v>
+        <v>0.001566297472592395</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.03280966666666667</v>
+        <v>18.29507</v>
       </c>
       <c r="H15">
-        <v>0.098429</v>
+        <v>36.59014000000001</v>
       </c>
       <c r="I15">
-        <v>0.000462038195015066</v>
+        <v>0.3316831828265337</v>
       </c>
       <c r="J15">
-        <v>0.0004972379773867126</v>
+        <v>0.2486085465502435</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.630069499999999</v>
+        <v>12.3208515</v>
       </c>
       <c r="N15">
-        <v>13.260139</v>
+        <v>24.641703</v>
       </c>
       <c r="O15">
-        <v>0.1301271859531132</v>
+        <v>0.3082109335400439</v>
       </c>
       <c r="P15">
-        <v>0.09068498458621042</v>
+        <v>0.2290008064750633</v>
       </c>
       <c r="Q15">
-        <v>0.2175303702718333</v>
+        <v>225.410840652105</v>
       </c>
       <c r="R15">
-        <v>1.305182221631</v>
+        <v>901.6433626084201</v>
       </c>
       <c r="S15">
-        <v>6.012373012016625E-05</v>
+        <v>0.102228383418499</v>
       </c>
       <c r="T15">
-        <v>4.509201831499248E-05</v>
+        <v>0.05693155765659907</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,681 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>26</v>
       </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.03280966666666667</v>
+        <v>18.29507</v>
       </c>
       <c r="H16">
-        <v>0.098429</v>
+        <v>36.59014000000001</v>
       </c>
       <c r="I16">
-        <v>0.000462038195015066</v>
+        <v>0.3316831828265337</v>
       </c>
       <c r="J16">
-        <v>0.0004972379773867126</v>
+        <v>0.2486085465502435</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.9187319999999999</v>
+        <v>0.9982416666666666</v>
       </c>
       <c r="N16">
-        <v>2.756196</v>
+        <v>2.994725</v>
       </c>
       <c r="O16">
-        <v>0.0180317883251564</v>
+        <v>0.02497140688546588</v>
       </c>
       <c r="P16">
-        <v>0.01884939454832071</v>
+        <v>0.02783064304326019</v>
       </c>
       <c r="Q16">
-        <v>0.030143290676</v>
+        <v>18.26290116858333</v>
       </c>
       <c r="R16">
-        <v>0.271289616084</v>
+        <v>109.5774070115</v>
       </c>
       <c r="S16">
-        <v>8.331374930649004E-06</v>
+        <v>0.008282595715427742</v>
       </c>
       <c r="T16">
-        <v>9.372634820171115E-06</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>15.0806785</v>
-      </c>
-      <c r="H17">
-        <v>30.161357</v>
-      </c>
-      <c r="I17">
-        <v>0.2123718459115458</v>
-      </c>
-      <c r="J17">
-        <v>0.1523674135663124</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>39.92976633333333</v>
-      </c>
-      <c r="N17">
-        <v>119.789299</v>
-      </c>
-      <c r="O17">
-        <v>0.7836943683202754</v>
-      </c>
-      <c r="P17">
-        <v>0.8192290241759873</v>
-      </c>
-      <c r="Q17">
-        <v>602.1679686531239</v>
-      </c>
-      <c r="R17">
-        <v>3613.007811918743</v>
-      </c>
-      <c r="S17">
-        <v>0.1664346196306597</v>
-      </c>
-      <c r="T17">
-        <v>0.1248238075321492</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>15.0806785</v>
-      </c>
-      <c r="H18">
-        <v>30.161357</v>
-      </c>
-      <c r="I18">
-        <v>0.2123718459115458</v>
-      </c>
-      <c r="J18">
-        <v>0.1523674135663124</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>3.113941333333333</v>
-      </c>
-      <c r="N18">
-        <v>9.341823999999999</v>
-      </c>
-      <c r="O18">
-        <v>0.06111676852403308</v>
-      </c>
-      <c r="P18">
-        <v>0.06388795512981353</v>
-      </c>
-      <c r="Q18">
-        <v>46.96034811586133</v>
-      </c>
-      <c r="R18">
-        <v>281.762088695168</v>
-      </c>
-      <c r="S18">
-        <v>0.01297948094759756</v>
-      </c>
-      <c r="T18">
-        <v>0.00973444248117031</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>15.0806785</v>
-      </c>
-      <c r="H19">
-        <v>30.161357</v>
-      </c>
-      <c r="I19">
-        <v>0.2123718459115458</v>
-      </c>
-      <c r="J19">
-        <v>0.1523674135663124</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>0.3581776666666667</v>
-      </c>
-      <c r="N19">
-        <v>1.074533</v>
-      </c>
-      <c r="O19">
-        <v>0.007029888877422101</v>
-      </c>
-      <c r="P19">
-        <v>0.007348641559667998</v>
-      </c>
-      <c r="Q19">
-        <v>5.401562236880167</v>
-      </c>
-      <c r="R19">
-        <v>32.409373421281</v>
-      </c>
-      <c r="S19">
-        <v>0.001492950477451176</v>
-      </c>
-      <c r="T19">
-        <v>0.001119693507672525</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>15.0806785</v>
-      </c>
-      <c r="H20">
-        <v>30.161357</v>
-      </c>
-      <c r="I20">
-        <v>0.2123718459115458</v>
-      </c>
-      <c r="J20">
-        <v>0.1523674135663124</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>6.630069499999999</v>
-      </c>
-      <c r="N20">
-        <v>13.260139</v>
-      </c>
-      <c r="O20">
-        <v>0.1301271859531132</v>
-      </c>
-      <c r="P20">
-        <v>0.09068498458621042</v>
-      </c>
-      <c r="Q20">
-        <v>99.98594656215575</v>
-      </c>
-      <c r="R20">
-        <v>399.943786248623</v>
-      </c>
-      <c r="S20">
-        <v>0.02763535068413761</v>
-      </c>
-      <c r="T20">
-        <v>0.01381743655070179</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>15.0806785</v>
-      </c>
-      <c r="H21">
-        <v>30.161357</v>
-      </c>
-      <c r="I21">
-        <v>0.2123718459115458</v>
-      </c>
-      <c r="J21">
-        <v>0.1523674135663124</v>
-      </c>
-      <c r="K21">
-        <v>2</v>
-      </c>
-      <c r="L21">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M21">
-        <v>0.9187319999999999</v>
-      </c>
-      <c r="N21">
-        <v>2.756196</v>
-      </c>
-      <c r="O21">
-        <v>0.0180317883251564</v>
-      </c>
-      <c r="P21">
-        <v>0.01884939454832071</v>
-      </c>
-      <c r="Q21">
-        <v>13.855101919662</v>
-      </c>
-      <c r="R21">
-        <v>83.130611517972</v>
-      </c>
-      <c r="S21">
-        <v>0.003829444171699726</v>
-      </c>
-      <c r="T21">
-        <v>0.002872033494618576</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-      <c r="F22">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G22">
-        <v>0.08406266666666666</v>
-      </c>
-      <c r="H22">
-        <v>0.252188</v>
-      </c>
-      <c r="I22">
-        <v>0.001183802419251028</v>
-      </c>
-      <c r="J22">
-        <v>0.001273988875648439</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>39.92976633333333</v>
-      </c>
-      <c r="N22">
-        <v>119.789299</v>
-      </c>
-      <c r="O22">
-        <v>0.7836943683202754</v>
-      </c>
-      <c r="P22">
-        <v>0.8192290241759873</v>
-      </c>
-      <c r="Q22">
-        <v>3.356602637356889</v>
-      </c>
-      <c r="R22">
-        <v>30.209423736212</v>
-      </c>
-      <c r="S22">
-        <v>0.0009277392891709484</v>
-      </c>
-      <c r="T22">
-        <v>0.001043688663408534</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-      <c r="F23">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G23">
-        <v>0.08406266666666666</v>
-      </c>
-      <c r="H23">
-        <v>0.252188</v>
-      </c>
-      <c r="I23">
-        <v>0.001183802419251028</v>
-      </c>
-      <c r="J23">
-        <v>0.001273988875648439</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>3.113941333333333</v>
-      </c>
-      <c r="N23">
-        <v>9.341823999999999</v>
-      </c>
-      <c r="O23">
-        <v>0.06111676852403308</v>
-      </c>
-      <c r="P23">
-        <v>0.06388795512981353</v>
-      </c>
-      <c r="Q23">
-        <v>0.2617662123235555</v>
-      </c>
-      <c r="R23">
-        <v>2.355895910911999</v>
-      </c>
-      <c r="S23">
-        <v>7.235017843555546E-05</v>
-      </c>
-      <c r="T23">
-        <v>8.139254412330908E-05</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-      <c r="F24">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G24">
-        <v>0.08406266666666666</v>
-      </c>
-      <c r="H24">
-        <v>0.252188</v>
-      </c>
-      <c r="I24">
-        <v>0.001183802419251028</v>
-      </c>
-      <c r="J24">
-        <v>0.001273988875648439</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>0.3581776666666667</v>
-      </c>
-      <c r="N24">
-        <v>1.074533</v>
-      </c>
-      <c r="O24">
-        <v>0.007029888877422101</v>
-      </c>
-      <c r="P24">
-        <v>0.007348641559667998</v>
-      </c>
-      <c r="Q24">
-        <v>0.03010936980044444</v>
-      </c>
-      <c r="R24">
-        <v>0.270984328204</v>
-      </c>
-      <c r="S24">
-        <v>8.321999460158179E-06</v>
-      </c>
-      <c r="T24">
-        <v>9.362087598144827E-06</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="F25">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G25">
-        <v>0.08406266666666666</v>
-      </c>
-      <c r="H25">
-        <v>0.252188</v>
-      </c>
-      <c r="I25">
-        <v>0.001183802419251028</v>
-      </c>
-      <c r="J25">
-        <v>0.001273988875648439</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>6.630069499999999</v>
-      </c>
-      <c r="N25">
-        <v>13.260139</v>
-      </c>
-      <c r="O25">
-        <v>0.1301271859531132</v>
-      </c>
-      <c r="P25">
-        <v>0.09068498458621042</v>
-      </c>
-      <c r="Q25">
-        <v>0.5573413223553333</v>
-      </c>
-      <c r="R25">
-        <v>3.344047934131999</v>
-      </c>
-      <c r="S25">
-        <v>0.0001540448775416238</v>
-      </c>
-      <c r="T25">
-        <v>0.0001155316615511823</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G26">
-        <v>0.08406266666666666</v>
-      </c>
-      <c r="H26">
-        <v>0.252188</v>
-      </c>
-      <c r="I26">
-        <v>0.001183802419251028</v>
-      </c>
-      <c r="J26">
-        <v>0.001273988875648439</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M26">
-        <v>0.9187319999999999</v>
-      </c>
-      <c r="N26">
-        <v>2.756196</v>
-      </c>
-      <c r="O26">
-        <v>0.0180317883251564</v>
-      </c>
-      <c r="P26">
-        <v>0.01884939454832071</v>
-      </c>
-      <c r="Q26">
-        <v>0.07723106187199999</v>
-      </c>
-      <c r="R26">
-        <v>0.6950795568479998</v>
-      </c>
-      <c r="S26">
-        <v>2.134607464274259E-05</v>
-      </c>
-      <c r="T26">
-        <v>2.401391896726892E-05</v>
+        <v>0.006918935716543563</v>
       </c>
     </row>
   </sheetData>
